--- a/MIC_data_1.xlsx
+++ b/MIC_data_1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\paid_projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\paid_projects\exam_seating_system\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E2D8898-819C-4C2F-BAF9-45F2BC9A6206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF606BF-6A8E-4179-BED6-14909A443286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{714911C2-3288-4A82-B4B6-589B217642D5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1894" uniqueCount="956">
   <si>
     <t>Roll Number</t>
   </si>
@@ -1788,9 +1788,6 @@
     <t>24H71A1227</t>
   </si>
   <si>
-    <t>it</t>
-  </si>
-  <si>
     <t>24H71A1228</t>
   </si>
   <si>
@@ -2896,6 +2893,15 @@
   </si>
   <si>
     <t>24H71A61D2</t>
+  </si>
+  <si>
+    <t>24H71A05L6</t>
+  </si>
+  <si>
+    <t>24H71A0551</t>
+  </si>
+  <si>
+    <t>24H71A0567</t>
   </si>
 </sst>
 </file>
@@ -3316,8 +3322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2467B20F-4CDF-418E-8FA9-DF20DAC85311}">
   <dimension ref="A1:B947"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A347" workbookViewId="0">
+      <selection activeCell="F357" sqref="F357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6064,7 +6070,7 @@
     </row>
     <row r="343" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3" t="s">
-        <v>347</v>
+        <v>954</v>
       </c>
       <c r="B343" s="3" t="s">
         <v>298</v>
@@ -6192,7 +6198,7 @@
     </row>
     <row r="359" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3" t="s">
-        <v>362</v>
+        <v>955</v>
       </c>
       <c r="B359" s="3" t="s">
         <v>298</v>
@@ -7384,7 +7390,7 @@
     </row>
     <row r="508" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="3" t="s">
-        <v>510</v>
+        <v>953</v>
       </c>
       <c r="B508" s="3" t="s">
         <v>298</v>
@@ -7963,12 +7969,12 @@
         <v>583</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
     </row>
     <row r="581" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B581" s="3" t="s">
         <v>557</v>
@@ -7976,7 +7982,7 @@
     </row>
     <row r="582" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B582" s="3" t="s">
         <v>557</v>
@@ -7984,7 +7990,7 @@
     </row>
     <row r="583" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B583" s="3" t="s">
         <v>557</v>
@@ -7992,7 +7998,7 @@
     </row>
     <row r="584" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B584" s="3" t="s">
         <v>557</v>
@@ -8000,7 +8006,7 @@
     </row>
     <row r="585" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B585" s="3" t="s">
         <v>557</v>
@@ -8008,7 +8014,7 @@
     </row>
     <row r="586" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B586" s="3" t="s">
         <v>557</v>
@@ -8016,7 +8022,7 @@
     </row>
     <row r="587" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B587" s="3" t="s">
         <v>557</v>
@@ -8024,7 +8030,7 @@
     </row>
     <row r="588" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B588" s="3" t="s">
         <v>557</v>
@@ -8032,7 +8038,7 @@
     </row>
     <row r="589" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B589" s="3" t="s">
         <v>557</v>
@@ -8040,7 +8046,7 @@
     </row>
     <row r="590" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B590" s="3" t="s">
         <v>557</v>
@@ -8048,7 +8054,7 @@
     </row>
     <row r="591" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B591" s="3" t="s">
         <v>557</v>
@@ -8056,7 +8062,7 @@
     </row>
     <row r="592" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B592" s="3" t="s">
         <v>557</v>
@@ -8064,7 +8070,7 @@
     </row>
     <row r="593" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B593" s="3" t="s">
         <v>557</v>
@@ -8072,7 +8078,7 @@
     </row>
     <row r="594" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B594" s="3" t="s">
         <v>557</v>
@@ -8080,7 +8086,7 @@
     </row>
     <row r="595" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B595" s="3" t="s">
         <v>557</v>
@@ -8088,7 +8094,7 @@
     </row>
     <row r="596" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B596" s="3" t="s">
         <v>557</v>
@@ -8096,7 +8102,7 @@
     </row>
     <row r="597" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B597" s="3" t="s">
         <v>557</v>
@@ -8104,7 +8110,7 @@
     </row>
     <row r="598" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B598" s="3" t="s">
         <v>557</v>
@@ -8112,7 +8118,7 @@
     </row>
     <row r="599" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B599" s="3" t="s">
         <v>557</v>
@@ -8120,7 +8126,7 @@
     </row>
     <row r="600" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B600" s="3" t="s">
         <v>557</v>
@@ -8128,7 +8134,7 @@
     </row>
     <row r="601" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B601" s="3" t="s">
         <v>557</v>
@@ -8136,7 +8142,7 @@
     </row>
     <row r="602" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B602" s="3" t="s">
         <v>557</v>
@@ -8144,7 +8150,7 @@
     </row>
     <row r="603" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B603" s="3" t="s">
         <v>557</v>
@@ -8152,7 +8158,7 @@
     </row>
     <row r="604" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B604" s="3" t="s">
         <v>557</v>
@@ -8160,7 +8166,7 @@
     </row>
     <row r="605" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B605" s="3" t="s">
         <v>557</v>
@@ -8168,7 +8174,7 @@
     </row>
     <row r="606" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B606" s="3" t="s">
         <v>557</v>
@@ -8176,7 +8182,7 @@
     </row>
     <row r="607" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B607" s="3" t="s">
         <v>557</v>
@@ -8184,7 +8190,7 @@
     </row>
     <row r="608" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B608" s="3" t="s">
         <v>557</v>
@@ -8192,7 +8198,7 @@
     </row>
     <row r="609" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B609" s="3" t="s">
         <v>557</v>
@@ -8200,7 +8206,7 @@
     </row>
     <row r="610" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B610" s="3" t="s">
         <v>557</v>
@@ -8208,7 +8214,7 @@
     </row>
     <row r="611" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B611" s="3" t="s">
         <v>557</v>
@@ -8216,7 +8222,7 @@
     </row>
     <row r="612" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B612" s="3" t="s">
         <v>557</v>
@@ -8224,7 +8230,7 @@
     </row>
     <row r="613" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B613" s="3" t="s">
         <v>557</v>
@@ -8232,7 +8238,7 @@
     </row>
     <row r="614" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B614" s="3" t="s">
         <v>557</v>
@@ -8240,7 +8246,7 @@
     </row>
     <row r="615" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B615" s="3" t="s">
         <v>557</v>
@@ -8248,7 +8254,7 @@
     </row>
     <row r="616" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B616" s="3" t="s">
         <v>557</v>
@@ -8256,7 +8262,7 @@
     </row>
     <row r="617" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="3" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B617" s="3" t="s">
         <v>557</v>
@@ -8264,7 +8270,7 @@
     </row>
     <row r="618" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B618" s="3" t="s">
         <v>557</v>
@@ -8272,7 +8278,7 @@
     </row>
     <row r="619" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="3" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B619" s="3" t="s">
         <v>557</v>
@@ -8280,7 +8286,7 @@
     </row>
     <row r="620" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B620" s="3" t="s">
         <v>557</v>
@@ -8288,7 +8294,7 @@
     </row>
     <row r="621" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B621" s="3" t="s">
         <v>557</v>
@@ -8296,7 +8302,7 @@
     </row>
     <row r="622" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B622" s="3" t="s">
         <v>557</v>
@@ -8304,7 +8310,7 @@
     </row>
     <row r="623" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B623" s="3" t="s">
         <v>557</v>
@@ -8312,7 +8318,7 @@
     </row>
     <row r="624" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B624" s="3" t="s">
         <v>557</v>
@@ -8320,7 +8326,7 @@
     </row>
     <row r="625" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B625" s="3" t="s">
         <v>557</v>
@@ -8328,7 +8334,7 @@
     </row>
     <row r="626" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B626" s="3" t="s">
         <v>557</v>
@@ -8336,7 +8342,7 @@
     </row>
     <row r="627" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="3" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B627" s="3" t="s">
         <v>557</v>
@@ -8344,7 +8350,7 @@
     </row>
     <row r="628" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B628" s="3" t="s">
         <v>557</v>
@@ -8352,7 +8358,7 @@
     </row>
     <row r="629" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B629" s="3" t="s">
         <v>557</v>
@@ -8360,7 +8366,7 @@
     </row>
     <row r="630" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B630" s="3" t="s">
         <v>557</v>
@@ -8368,7 +8374,7 @@
     </row>
     <row r="631" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="3" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B631" s="3" t="s">
         <v>557</v>
@@ -8376,7 +8382,7 @@
     </row>
     <row r="632" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B632" s="3" t="s">
         <v>557</v>
@@ -8384,7 +8390,7 @@
     </row>
     <row r="633" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B633" s="3" t="s">
         <v>557</v>
@@ -8392,7 +8398,7 @@
     </row>
     <row r="634" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B634" s="3" t="s">
         <v>557</v>
@@ -8400,7 +8406,7 @@
     </row>
     <row r="635" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B635" s="3" t="s">
         <v>557</v>
@@ -8408,7 +8414,7 @@
     </row>
     <row r="636" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B636" s="3" t="s">
         <v>557</v>
@@ -8416,7 +8422,7 @@
     </row>
     <row r="637" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="3" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B637" s="3" t="s">
         <v>557</v>
@@ -8424,7 +8430,7 @@
     </row>
     <row r="638" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B638" s="3" t="s">
         <v>557</v>
@@ -8432,7 +8438,7 @@
     </row>
     <row r="639" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B639" s="3" t="s">
         <v>557</v>
@@ -8440,7 +8446,7 @@
     </row>
     <row r="640" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B640" s="3" t="s">
         <v>557</v>
@@ -8448,7 +8454,7 @@
     </row>
     <row r="641" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B641" s="3" t="s">
         <v>557</v>
@@ -8456,7 +8462,7 @@
     </row>
     <row r="642" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B642" s="3" t="s">
         <v>557</v>
@@ -8464,7 +8470,7 @@
     </row>
     <row r="643" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="3" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B643" s="3" t="s">
         <v>557</v>
@@ -8472,7 +8478,7 @@
     </row>
     <row r="644" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B644" s="3" t="s">
         <v>557</v>
@@ -8480,7 +8486,7 @@
     </row>
     <row r="645" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B645" s="3" t="s">
         <v>557</v>
@@ -8488,7 +8494,7 @@
     </row>
     <row r="646" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B646" s="3" t="s">
         <v>557</v>
@@ -8496,7 +8502,7 @@
     </row>
     <row r="647" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B647" s="3" t="s">
         <v>557</v>
@@ -8504,7 +8510,7 @@
     </row>
     <row r="648" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B648" s="3" t="s">
         <v>557</v>
@@ -8512,7 +8518,7 @@
     </row>
     <row r="649" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B649" s="3" t="s">
         <v>557</v>
@@ -8520,7 +8526,7 @@
     </row>
     <row r="650" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="3" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B650" s="3" t="s">
         <v>557</v>
@@ -8528,7 +8534,7 @@
     </row>
     <row r="651" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B651" s="3" t="s">
         <v>557</v>
@@ -8536,7 +8542,7 @@
     </row>
     <row r="652" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B652" s="3" t="s">
         <v>557</v>
@@ -8544,7 +8550,7 @@
     </row>
     <row r="653" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B653" s="3" t="s">
         <v>557</v>
@@ -8552,7 +8558,7 @@
     </row>
     <row r="654" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B654" s="3" t="s">
         <v>557</v>
@@ -8560,7 +8566,7 @@
     </row>
     <row r="655" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B655" s="3" t="s">
         <v>557</v>
@@ -8568,7 +8574,7 @@
     </row>
     <row r="656" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="3" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B656" s="3" t="s">
         <v>557</v>
@@ -8576,7 +8582,7 @@
     </row>
     <row r="657" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B657" s="3" t="s">
         <v>557</v>
@@ -8584,7 +8590,7 @@
     </row>
     <row r="658" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B658" s="3" t="s">
         <v>557</v>
@@ -8592,7 +8598,7 @@
     </row>
     <row r="659" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B659" s="3" t="s">
         <v>557</v>
@@ -8600,7 +8606,7 @@
     </row>
     <row r="660" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B660" s="3" t="s">
         <v>557</v>
@@ -8608,7 +8614,7 @@
     </row>
     <row r="661" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B661" s="3" t="s">
         <v>557</v>
@@ -8616,7 +8622,7 @@
     </row>
     <row r="662" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B662" s="3" t="s">
         <v>557</v>
@@ -8624,7 +8630,7 @@
     </row>
     <row r="663" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B663" s="3" t="s">
         <v>557</v>
@@ -8632,7 +8638,7 @@
     </row>
     <row r="664" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B664" s="3" t="s">
         <v>557</v>
@@ -8640,7 +8646,7 @@
     </row>
     <row r="665" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B665" s="3" t="s">
         <v>557</v>
@@ -8648,7 +8654,7 @@
     </row>
     <row r="666" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B666" s="3" t="s">
         <v>557</v>
@@ -8656,7 +8662,7 @@
     </row>
     <row r="667" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="3" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B667" s="3" t="s">
         <v>557</v>
@@ -8664,7 +8670,7 @@
     </row>
     <row r="668" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B668" s="3" t="s">
         <v>557</v>
@@ -8672,7 +8678,7 @@
     </row>
     <row r="669" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B669" s="3" t="s">
         <v>557</v>
@@ -8680,7 +8686,7 @@
     </row>
     <row r="670" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B670" s="3" t="s">
         <v>557</v>
@@ -8688,7 +8694,7 @@
     </row>
     <row r="671" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B671" s="3" t="s">
         <v>557</v>
@@ -8696,7 +8702,7 @@
     </row>
     <row r="672" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B672" s="3" t="s">
         <v>557</v>
@@ -8704,7 +8710,7 @@
     </row>
     <row r="673" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B673" s="3" t="s">
         <v>557</v>
@@ -8712,7 +8718,7 @@
     </row>
     <row r="674" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B674" s="3" t="s">
         <v>557</v>
@@ -8720,7 +8726,7 @@
     </row>
     <row r="675" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B675" s="3" t="s">
         <v>557</v>
@@ -8728,7 +8734,7 @@
     </row>
     <row r="676" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="3" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B676" s="3" t="s">
         <v>557</v>
@@ -8736,7 +8742,7 @@
     </row>
     <row r="677" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="3" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B677" s="3" t="s">
         <v>557</v>
@@ -8744,7 +8750,7 @@
     </row>
     <row r="678" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="3" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B678" s="3" t="s">
         <v>557</v>
@@ -8752,7 +8758,7 @@
     </row>
     <row r="679" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="3" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B679" s="3" t="s">
         <v>557</v>
@@ -8760,7 +8766,7 @@
     </row>
     <row r="680" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="3" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B680" s="3" t="s">
         <v>557</v>
@@ -8768,7 +8774,7 @@
     </row>
     <row r="681" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="3" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B681" s="3" t="s">
         <v>557</v>
@@ -8776,7 +8782,7 @@
     </row>
     <row r="682" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B682" s="3" t="s">
         <v>557</v>
@@ -8784,7 +8790,7 @@
     </row>
     <row r="683" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B683" s="3" t="s">
         <v>557</v>
@@ -8792,2114 +8798,2114 @@
     </row>
     <row r="684" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B684" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="685" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B685" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="686" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B686" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="687" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B687" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="688" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="3" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B688" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="689" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="3" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B689" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="690" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B690" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="691" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B691" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="692" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B692" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="693" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="3" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B693" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="694" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B694" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="695" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="3" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B695" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="696" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="3" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B696" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="697" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="3" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B697" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="698" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="3" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B698" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="699" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B699" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="700" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="3" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B700" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="701" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="3" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B701" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="702" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B702" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="703" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="3" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B703" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="704" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B704" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="705" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B705" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="706" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="3" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B706" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="707" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B707" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="708" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B708" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="709" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B709" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="710" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="3" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B710" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="711" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B711" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="712" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B712" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="713" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B713" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="714" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B714" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="715" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B715" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="716" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B716" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="717" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B717" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="718" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B718" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="719" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B719" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="720" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B720" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="721" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B721" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="722" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="3" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B722" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="723" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="3" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B723" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="724" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="3" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B724" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="725" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="3" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B725" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="726" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="3" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B726" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="727" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B727" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="728" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B728" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="729" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="3" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B729" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="730" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="3" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B730" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="731" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B731" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="732" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B732" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="733" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B733" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="734" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B734" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="735" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B735" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="736" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="3" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B736" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="737" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B737" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="738" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="3" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B738" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="739" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B739" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="740" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="3" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B740" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="741" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B741" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="742" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B742" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="743" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="3" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B743" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="744" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B744" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="745" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B745" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="746" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="3" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B746" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="747" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="3" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B747" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="748" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B748" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="749" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B749" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="750" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="3" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B750" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="751" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="3" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B751" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="752" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="3" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B752" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="753" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="3" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B753" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="754" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B754" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="755" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B755" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="756" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B756" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="757" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B757" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="758" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="3" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B758" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="759" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B759" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="760" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B760" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="761" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B761" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="762" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B762" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="763" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B763" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="764" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="3" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B764" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="765" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="3" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B765" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="766" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="3" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B766" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="767" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B767" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="768" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B768" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="769" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B769" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="770" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B770" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="771" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="3" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B771" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="772" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="3" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B772" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="773" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="3" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B773" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="774" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="3" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B774" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="775" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="3" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B775" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="776" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="3" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B776" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="777" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="3" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B777" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="778" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B778" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="779" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B779" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="780" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B780" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="781" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="3" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B781" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="782" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B782" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="783" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B783" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="784" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="3" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="785" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="3" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="786" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="3" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B786" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="787" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="3" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B787" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="788" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B788" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="789" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B789" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="790" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B790" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="791" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B791" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="792" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B792" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="793" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B793" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="794" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B794" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="795" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B795" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="796" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B796" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="797" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B797" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="798" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B798" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="799" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B799" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="800" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B800" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="801" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B801" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="802" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B802" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="803" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B803" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="804" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B804" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="805" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B805" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="806" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B806" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="807" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B807" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="808" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B808" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="809" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B809" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="810" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B810" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="811" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B811" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="812" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B812" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="813" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="3" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B813" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="814" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="3" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B814" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="815" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B815" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="816" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B816" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="817" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="3" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B817" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="818" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B818" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="819" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B819" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="820" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B820" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="821" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B821" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="822" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B822" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="823" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B823" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="824" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="3" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B824" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="825" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="3" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B825" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="826" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B826" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="827" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B827" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="828" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="3" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B828" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="829" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B829" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="830" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B830" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="831" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B831" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="832" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B832" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="833" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="3" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B833" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="834" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="3" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B834" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="835" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="3" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B835" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="836" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B836" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="837" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B837" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="838" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B838" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="839" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="B839" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="840" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B840" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="841" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B841" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="842" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B842" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="843" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="3" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B843" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="844" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="3" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B844" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="845" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="3" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B845" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="846" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="3" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B846" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="847" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="3" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B847" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="848" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="3" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B848" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="849" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="3" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B849" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="850" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="3" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B850" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="851" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="3" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B851" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="852" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="3" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B852" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="853" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="3" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B853" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="854" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="3" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B854" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="855" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="3" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B855" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="856" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B856" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="857" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="3" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B857" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="858" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="3" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B858" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="859" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B859" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="860" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B860" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="861" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B861" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="862" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B862" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="863" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B863" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="864" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B864" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="865" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B865" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="866" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B866" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="867" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B867" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="868" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B868" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="869" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B869" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="870" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B870" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="871" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B871" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="872" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B872" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="873" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B873" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="874" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B874" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="875" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B875" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="876" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B876" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="877" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B877" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="878" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B878" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="879" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B879" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="880" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B880" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="881" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B881" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="882" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B882" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="883" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B883" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="884" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B884" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="885" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B885" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="886" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B886" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="887" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B887" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="888" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B888" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="889" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B889" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="890" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B890" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="891" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B891" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="892" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B892" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="893" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B893" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="894" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B894" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="895" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B895" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="896" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B896" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="897" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B897" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="898" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B898" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="899" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B899" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="900" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B900" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="901" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B901" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="902" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B902" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="903" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B903" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="904" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B904" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="905" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B905" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="906" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B906" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="907" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B907" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="908" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B908" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="909" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B909" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="910" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B910" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="911" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B911" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="912" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B912" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="913" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B913" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="914" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B914" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="915" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B915" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="916" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B916" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="917" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B917" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="918" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B918" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="919" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B919" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="920" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B920" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="921" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B921" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="922" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B922" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="923" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="3" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B923" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="924" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B924" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="925" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="3" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B925" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="926" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="3" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B926" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="927" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B927" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="928" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B928" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="929" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B929" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="930" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B930" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="931" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B931" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="932" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="3" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B932" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="933" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B933" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="934" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="3" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B934" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="935" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B935" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="936" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="B936" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="937" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B937" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="938" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="B938" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="939" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B939" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="940" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B940" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="941" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="3" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B941" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="942" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="3" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B942" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="943" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B943" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="944" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B944" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="945" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B945" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="946" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B946" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="947" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B947" s="3" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
